--- a/biology/Microbiologie/Alfred_Hershey/Alfred_Hershey.xlsx
+++ b/biology/Microbiologie/Alfred_Hershey/Alfred_Hershey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Day Hershey (4 décembre 1908 - 22 mai 1997) était un microbiologiste et généticien américain. Il obtient le prix Nobel de physiologie ou médecine en 1969, avec Salvador Luria et Max Delbrück.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Hershey est né à Owosso, dans le Michigan, il est diplômé en chimie de l'université de l'État du Michigan en 1930 et obtient son doctorat en bactériologie en 1934, et est nommé peu de temps après au département de bactériologie de l'Université Washington à St. Louis.
 Il commence alors à mener des expériences sur les bactériophages avec l'italo-américain Salvador Luria et l'allemand Max Delbrück en 1940, et ils se rendent compte que lorsque deux lignées différentes de bactériophage infectent la même bactérie, les deux virus (bactériophages) ont échangé de l'information génétique.
